--- a/CEC_txt_to_xlsx/OUTPUTS/D30/CEC2017functions-D30__AGEO2var_5.xlsx
+++ b/CEC_txt_to_xlsx/OUTPUTS/D30/CEC2017functions-D30__AGEO2var_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="146">
   <si>
     <t>No</t>
   </si>
@@ -34,412 +34,424 @@
     <t>Std</t>
   </si>
   <si>
-    <t>5.31E+8</t>
-  </si>
-  <si>
-    <t>1.08E+5</t>
-  </si>
-  <si>
-    <t>1.49E+2</t>
-  </si>
-  <si>
-    <t>7.69E+1</t>
-  </si>
-  <si>
-    <t>1.13E+0</t>
-  </si>
-  <si>
-    <t>1.46E+2</t>
-  </si>
-  <si>
-    <t>5.81E+1</t>
-  </si>
-  <si>
-    <t>2.51E+2</t>
-  </si>
-  <si>
-    <t>3.19E+3</t>
-  </si>
-  <si>
-    <t>1.47E+3</t>
-  </si>
-  <si>
-    <t>6.26E+7</t>
-  </si>
-  <si>
-    <t>6.35E+5</t>
-  </si>
-  <si>
-    <t>2.85E+5</t>
-  </si>
-  <si>
-    <t>1.58E+4</t>
-  </si>
-  <si>
-    <t>7.50E+2</t>
-  </si>
-  <si>
-    <t>1.99E+2</t>
-  </si>
-  <si>
-    <t>9.64E+5</t>
-  </si>
-  <si>
-    <t>1.04E+4</t>
-  </si>
-  <si>
-    <t>1.92E+2</t>
-  </si>
-  <si>
-    <t>2.71E+2</t>
-  </si>
-  <si>
-    <t>2.33E+2</t>
-  </si>
-  <si>
-    <t>4.21E+2</t>
-  </si>
-  <si>
-    <t>5.10E+2</t>
-  </si>
-  <si>
-    <t>4.58E+2</t>
-  </si>
-  <si>
-    <t>1.87E+3</t>
-  </si>
-  <si>
-    <t>5.30E+2</t>
-  </si>
-  <si>
-    <t>5.25E+2</t>
-  </si>
-  <si>
-    <t>8.90E+2</t>
-  </si>
-  <si>
-    <t>2.14E+5</t>
-  </si>
-  <si>
-    <t>5.13E+9</t>
-  </si>
-  <si>
-    <t>2.58E+5</t>
+    <t>2.42E+8</t>
+  </si>
+  <si>
+    <t>9.34E+4</t>
+  </si>
+  <si>
+    <t>1.15E+2</t>
+  </si>
+  <si>
+    <t>6.14E+1</t>
+  </si>
+  <si>
+    <t>1.35E+0</t>
+  </si>
+  <si>
+    <t>1.30E+2</t>
+  </si>
+  <si>
+    <t>7.32E+1</t>
+  </si>
+  <si>
+    <t>1.01E+2</t>
+  </si>
+  <si>
+    <t>2.18E+3</t>
+  </si>
+  <si>
+    <t>7.48E+2</t>
+  </si>
+  <si>
+    <t>6.41E+7</t>
+  </si>
+  <si>
+    <t>2.30E+6</t>
+  </si>
+  <si>
+    <t>3.27E+5</t>
+  </si>
+  <si>
+    <t>6.70E+3</t>
+  </si>
+  <si>
+    <t>5.39E+2</t>
+  </si>
+  <si>
+    <t>8.82E+1</t>
+  </si>
+  <si>
+    <t>1.33E+6</t>
+  </si>
+  <si>
+    <t>2.12E+4</t>
+  </si>
+  <si>
+    <t>7.19E+1</t>
+  </si>
+  <si>
+    <t>2.74E+2</t>
+  </si>
+  <si>
+    <t>1.68E+2</t>
+  </si>
+  <si>
+    <t>3.63E+2</t>
+  </si>
+  <si>
+    <t>5.06E+2</t>
+  </si>
+  <si>
+    <t>4.42E+2</t>
+  </si>
+  <si>
+    <t>8.65E+2</t>
+  </si>
+  <si>
+    <t>5.11E+2</t>
+  </si>
+  <si>
+    <t>5.17E+2</t>
+  </si>
+  <si>
+    <t>6.43E+2</t>
+  </si>
+  <si>
+    <t>4.27E+4</t>
+  </si>
+  <si>
+    <t>2.82E+9</t>
+  </si>
+  <si>
+    <t>2.57E+5</t>
+  </si>
+  <si>
+    <t>3.45E+2</t>
+  </si>
+  <si>
+    <t>1.21E+2</t>
+  </si>
+  <si>
+    <t>5.42E+0</t>
+  </si>
+  <si>
+    <t>2.48E+2</t>
+  </si>
+  <si>
+    <t>1.24E+2</t>
+  </si>
+  <si>
+    <t>7.45E+2</t>
+  </si>
+  <si>
+    <t>4.41E+3</t>
+  </si>
+  <si>
+    <t>6.89E+3</t>
+  </si>
+  <si>
+    <t>3.75E+8</t>
+  </si>
+  <si>
+    <t>1.39E+8</t>
+  </si>
+  <si>
+    <t>4.01E+6</t>
+  </si>
+  <si>
+    <t>8.47E+7</t>
+  </si>
+  <si>
+    <t>1.58E+3</t>
+  </si>
+  <si>
+    <t>2.55E+7</t>
+  </si>
+  <si>
+    <t>1.40E+8</t>
+  </si>
+  <si>
+    <t>6.74E+2</t>
+  </si>
+  <si>
+    <t>3.31E+2</t>
+  </si>
+  <si>
+    <t>4.60E+3</t>
+  </si>
+  <si>
+    <t>4.76E+2</t>
+  </si>
+  <si>
+    <t>6.78E+2</t>
+  </si>
+  <si>
+    <t>5.67E+2</t>
+  </si>
+  <si>
+    <t>2.47E+3</t>
+  </si>
+  <si>
+    <t>5.81E+2</t>
+  </si>
+  <si>
+    <t>6.71E+2</t>
+  </si>
+  <si>
+    <t>1.72E+3</t>
+  </si>
+  <si>
+    <t>3.61E+7</t>
+  </si>
+  <si>
+    <t>1.25E+9</t>
+  </si>
+  <si>
+    <t>1.64E+5</t>
+  </si>
+  <si>
+    <t>1.85E+2</t>
+  </si>
+  <si>
+    <t>9.62E+1</t>
+  </si>
+  <si>
+    <t>2.85E+0</t>
+  </si>
+  <si>
+    <t>1.86E+2</t>
+  </si>
+  <si>
+    <t>9.76E+1</t>
+  </si>
+  <si>
+    <t>3.16E+2</t>
+  </si>
+  <si>
+    <t>3.61E+3</t>
+  </si>
+  <si>
+    <t>3.42E+3</t>
+  </si>
+  <si>
+    <t>1.38E+8</t>
+  </si>
+  <si>
+    <t>2.75E+7</t>
+  </si>
+  <si>
+    <t>1.22E+6</t>
+  </si>
+  <si>
+    <t>6.36E+5</t>
+  </si>
+  <si>
+    <t>1.03E+3</t>
   </si>
   <si>
     <t>4.06E+2</t>
   </si>
   <si>
-    <t>7.79E+0</t>
-  </si>
-  <si>
-    <t>2.87E+2</t>
-  </si>
-  <si>
-    <t>1.43E+2</t>
-  </si>
-  <si>
-    <t>1.13E+3</t>
-  </si>
-  <si>
-    <t>4.64E+3</t>
-  </si>
-  <si>
-    <t>9.03E+3</t>
-  </si>
-  <si>
-    <t>5.87E+8</t>
-  </si>
-  <si>
-    <t>5.93E+8</t>
-  </si>
-  <si>
-    <t>7.10E+6</t>
-  </si>
-  <si>
-    <t>1.54E+8</t>
-  </si>
-  <si>
-    <t>1.82E+3</t>
-  </si>
-  <si>
-    <t>7.74E+2</t>
-  </si>
-  <si>
-    <t>6.86E+7</t>
-  </si>
-  <si>
-    <t>3.97E+8</t>
-  </si>
-  <si>
-    <t>8.26E+2</t>
-  </si>
-  <si>
-    <t>3.63E+2</t>
-  </si>
-  <si>
-    <t>5.34E+3</t>
-  </si>
-  <si>
-    <t>6.92E+2</t>
-  </si>
-  <si>
-    <t>6.01E+2</t>
-  </si>
-  <si>
-    <t>2.65E+3</t>
-  </si>
-  <si>
-    <t>6.00E+2</t>
-  </si>
-  <si>
-    <t>8.89E+2</t>
-  </si>
-  <si>
-    <t>2.66E+3</t>
-  </si>
-  <si>
-    <t>6.54E+7</t>
-  </si>
-  <si>
-    <t>2.54E+9</t>
-  </si>
-  <si>
-    <t>2.02E+5</t>
-  </si>
-  <si>
-    <t>2.14E+2</t>
-  </si>
-  <si>
-    <t>1.16E+2</t>
-  </si>
-  <si>
-    <t>4.13E+0</t>
-  </si>
-  <si>
-    <t>2.17E+2</t>
-  </si>
-  <si>
-    <t>7.17E+2</t>
-  </si>
-  <si>
-    <t>3.81E+3</t>
-  </si>
-  <si>
-    <t>4.96E+3</t>
-  </si>
-  <si>
-    <t>2.89E+8</t>
-  </si>
-  <si>
-    <t>1.35E+8</t>
-  </si>
-  <si>
-    <t>2.79E+6</t>
-  </si>
-  <si>
-    <t>5.57E+6</t>
-  </si>
-  <si>
-    <t>1.35E+3</t>
-  </si>
-  <si>
-    <t>4.94E+2</t>
-  </si>
-  <si>
-    <t>1.83E+7</t>
-  </si>
-  <si>
-    <t>1.06E+7</t>
-  </si>
-  <si>
-    <t>5.50E+2</t>
-  </si>
-  <si>
-    <t>3.14E+2</t>
-  </si>
-  <si>
-    <t>4.13E+2</t>
-  </si>
-  <si>
-    <t>4.60E+2</t>
-  </si>
-  <si>
-    <t>6.48E+2</t>
-  </si>
-  <si>
-    <t>5.19E+2</t>
-  </si>
-  <si>
-    <t>2.31E+3</t>
-  </si>
-  <si>
-    <t>5.71E+2</t>
-  </si>
-  <si>
-    <t>6.20E+2</t>
-  </si>
-  <si>
-    <t>2.39E+9</t>
-  </si>
-  <si>
-    <t>1.92E+5</t>
-  </si>
-  <si>
-    <t>2.21E+2</t>
-  </si>
-  <si>
-    <t>1.12E+2</t>
-  </si>
-  <si>
-    <t>4.08E+0</t>
-  </si>
-  <si>
-    <t>2.19E+2</t>
-  </si>
-  <si>
-    <t>6.81E+2</t>
-  </si>
-  <si>
-    <t>3.83E+3</t>
-  </si>
-  <si>
-    <t>4.87E+3</t>
-  </si>
-  <si>
-    <t>2.69E+8</t>
-  </si>
-  <si>
-    <t>1.67E+8</t>
-  </si>
-  <si>
-    <t>2.83E+6</t>
-  </si>
-  <si>
-    <t>2.15E+7</t>
-  </si>
-  <si>
-    <t>1.29E+3</t>
+    <t>6.72E+6</t>
+  </si>
+  <si>
+    <t>1.68E+6</t>
+  </si>
+  <si>
+    <t>4.41E+2</t>
+  </si>
+  <si>
+    <t>2.98E+2</t>
+  </si>
+  <si>
+    <t>2.77E+2</t>
+  </si>
+  <si>
+    <t>4.44E+2</t>
+  </si>
+  <si>
+    <t>5.89E+2</t>
+  </si>
+  <si>
+    <t>4.89E+2</t>
+  </si>
+  <si>
+    <t>2.12E+3</t>
+  </si>
+  <si>
+    <t>5.54E+2</t>
+  </si>
+  <si>
+    <t>5.92E+2</t>
+  </si>
+  <si>
+    <t>1.21E+3</t>
+  </si>
+  <si>
+    <t>7.23E+5</t>
+  </si>
+  <si>
+    <t>1.31E+9</t>
+  </si>
+  <si>
+    <t>1.65E+5</t>
+  </si>
+  <si>
+    <t>1.88E+2</t>
+  </si>
+  <si>
+    <t>9.55E+1</t>
+  </si>
+  <si>
+    <t>2.97E+0</t>
+  </si>
+  <si>
+    <t>1.87E+2</t>
+  </si>
+  <si>
+    <t>9.83E+1</t>
+  </si>
+  <si>
+    <t>3.80E+2</t>
+  </si>
+  <si>
+    <t>3.52E+3</t>
+  </si>
+  <si>
+    <t>3.15E+3</t>
+  </si>
+  <si>
+    <t>1.48E+8</t>
+  </si>
+  <si>
+    <t>3.54E+7</t>
+  </si>
+  <si>
+    <t>1.38E+6</t>
+  </si>
+  <si>
+    <t>4.69E+6</t>
+  </si>
+  <si>
+    <t>1.04E+3</t>
+  </si>
+  <si>
+    <t>9.28E+6</t>
+  </si>
+  <si>
+    <t>1.19E+7</t>
+  </si>
+  <si>
+    <t>4.23E+2</t>
+  </si>
+  <si>
+    <t>3.00E+2</t>
+  </si>
+  <si>
+    <t>4.40E+2</t>
   </si>
   <si>
     <t>4.91E+2</t>
   </si>
   <si>
-    <t>1.97E+7</t>
-  </si>
-  <si>
-    <t>8.25E+7</t>
-  </si>
-  <si>
-    <t>5.35E+2</t>
-  </si>
-  <si>
-    <t>1.51E+3</t>
-  </si>
-  <si>
-    <t>4.61E+2</t>
-  </si>
-  <si>
-    <t>6.25E+2</t>
-  </si>
-  <si>
-    <t>2.29E+3</t>
-  </si>
-  <si>
-    <t>5.70E+2</t>
-  </si>
-  <si>
-    <t>6.44E+2</t>
-  </si>
-  <si>
-    <t>1.50E+3</t>
-  </si>
-  <si>
-    <t>1.33E+7</t>
-  </si>
-  <si>
-    <t>1.21E+9</t>
-  </si>
-  <si>
-    <t>3.63E+4</t>
-  </si>
-  <si>
-    <t>5.52E+1</t>
-  </si>
-  <si>
-    <t>1.71E+1</t>
-  </si>
-  <si>
-    <t>1.64E+0</t>
-  </si>
-  <si>
-    <t>3.09E+1</t>
-  </si>
-  <si>
-    <t>1.80E+1</t>
-  </si>
-  <si>
-    <t>2.30E+2</t>
-  </si>
-  <si>
-    <t>4.37E+2</t>
-  </si>
-  <si>
-    <t>1.89E+3</t>
-  </si>
-  <si>
-    <t>1.30E+8</t>
-  </si>
-  <si>
-    <t>1.61E+8</t>
-  </si>
-  <si>
-    <t>2.05E+6</t>
-  </si>
-  <si>
-    <t>3.79E+7</t>
-  </si>
-  <si>
-    <t>3.01E+2</t>
-  </si>
-  <si>
-    <t>1.53E+2</t>
-  </si>
-  <si>
-    <t>1.48E+7</t>
-  </si>
-  <si>
-    <t>1.24E+8</t>
-  </si>
-  <si>
-    <t>1.71E+2</t>
-  </si>
-  <si>
-    <t>2.23E+1</t>
-  </si>
-  <si>
-    <t>2.36E+1</t>
-  </si>
-  <si>
-    <t>5.12E+1</t>
-  </si>
-  <si>
-    <t>4.29E+1</t>
-  </si>
-  <si>
-    <t>2.23E+2</t>
-  </si>
-  <si>
-    <t>1.66E+1</t>
-  </si>
-  <si>
-    <t>7.84E+1</t>
-  </si>
-  <si>
-    <t>4.43E+2</t>
-  </si>
-  <si>
-    <t>2.03E+7</t>
+    <t>2.09E+3</t>
+  </si>
+  <si>
+    <t>5.51E+2</t>
+  </si>
+  <si>
+    <t>1.17E+3</t>
+  </si>
+  <si>
+    <t>2.54E+6</t>
+  </si>
+  <si>
+    <t>6.52E+8</t>
+  </si>
+  <si>
+    <t>3.33E+4</t>
+  </si>
+  <si>
+    <t>4.08E+1</t>
+  </si>
+  <si>
+    <t>1.14E+1</t>
+  </si>
+  <si>
+    <t>9.09E-1</t>
+  </si>
+  <si>
+    <t>2.40E+1</t>
+  </si>
+  <si>
+    <t>1.28E+1</t>
+  </si>
+  <si>
+    <t>1.63E+2</t>
+  </si>
+  <si>
+    <t>4.71E+2</t>
+  </si>
+  <si>
+    <t>1.25E+3</t>
+  </si>
+  <si>
+    <t>5.90E+7</t>
+  </si>
+  <si>
+    <t>3.56E+7</t>
+  </si>
+  <si>
+    <t>8.24E+5</t>
+  </si>
+  <si>
+    <t>1.31E+7</t>
+  </si>
+  <si>
+    <t>2.27E+2</t>
+  </si>
+  <si>
+    <t>1.51E+2</t>
+  </si>
+  <si>
+    <t>6.50E+6</t>
+  </si>
+  <si>
+    <t>2.64E+7</t>
+  </si>
+  <si>
+    <t>1.39E+2</t>
+  </si>
+  <si>
+    <t>1.36E+1</t>
+  </si>
+  <si>
+    <t>8.02E+2</t>
+  </si>
+  <si>
+    <t>1.84E+1</t>
+  </si>
+  <si>
+    <t>4.05E+1</t>
+  </si>
+  <si>
+    <t>2.56E+1</t>
+  </si>
+  <si>
+    <t>2.39E+2</t>
+  </si>
+  <si>
+    <t>1.45E+1</t>
+  </si>
+  <si>
+    <t>3.46E+1</t>
+  </si>
+  <si>
+    <t>2.66E+2</t>
+  </si>
+  <si>
+    <t>6.07E+6</t>
   </si>
 </sst>
 </file>
@@ -834,13 +846,13 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -854,13 +866,13 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -874,13 +886,13 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -891,16 +903,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -911,16 +923,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -931,16 +943,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -951,16 +963,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -971,16 +983,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -991,16 +1003,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1011,16 +1023,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1031,16 +1043,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1051,16 +1063,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1071,16 +1083,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1091,16 +1103,16 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1111,16 +1123,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1131,16 +1143,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1154,13 +1166,13 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1174,13 +1186,13 @@
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1194,13 +1206,13 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1214,13 +1226,13 @@
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1234,13 +1246,13 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1251,16 +1263,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1271,16 +1283,16 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1291,16 +1303,16 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1311,16 +1323,16 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1331,16 +1343,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1351,16 +1363,16 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1371,16 +1383,16 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1391,16 +1403,16 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
